--- a/report/BlockSizeStudy.xlsx
+++ b/report/BlockSizeStudy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/a67649_uminho_pt/Documents/Partilha entre pcs/Mestrado/CPD/AP/TP2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OneDrive\Universidade do Minho\MEI\Computação Paralela e Distribuída\3 - Algoritmos Paralelos\Trab2\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +29,29 @@
     <t>matrix size = 1000</t>
   </si>
   <si>
-    <t>block size</t>
+    <t>Tamanho do Bloco</t>
   </si>
   <si>
-    <t>time</t>
+    <t>Tempo</t>
   </si>
   <si>
-    <t>error</t>
+    <t>Erro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -71,9 +79,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,119 +370,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E12"/>
+  <dimension ref="C4:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="E12" sqref="C4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.20372000000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>3.0931000000000001E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14569799999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.7379E-8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>0.20372000000000001</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3.0931000000000001E-8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>0.14569799999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2.7379E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>60</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.128968</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1.0435E-7</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
         <v>80</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.13805600000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>1.5687E-7</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>100</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.145346</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>2.2443000000000001E-7</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="1">
         <v>150</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.17504</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>4.0921E-7</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>200</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.26797500000000002</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>7.8296000000000002E-7</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="1">
         <v>250</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.36848900000000001</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>2.4366000000000001E-6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>